--- a/biology/Médecine/Soutien_aux_techniques_innovantes_coûteuses/Soutien_aux_techniques_innovantes_coûteuses.xlsx
+++ b/biology/Médecine/Soutien_aux_techniques_innovantes_coûteuses/Soutien_aux_techniques_innovantes_coûteuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soutien_aux_techniques_innovantes_co%C3%BBteuses</t>
+          <t>Soutien_aux_techniques_innovantes_coûteuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le programme de soutien aux techniques innovantes coûteuses (abrégé en STIC) est un programme ministériel de financement de la recherche clinique en France. Il se déroule sous la forme d'un appel à projets dont la gestion est confiée à la Direction générale de l'Offre de soins.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soutien_aux_techniques_innovantes_co%C3%BBteuses</t>
+          <t>Soutien_aux_techniques_innovantes_coûteuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce programme a été mis en place en 2000 et s'inscrit dans le financement à l'activité des hôpitaux par l'octroi d'enveloppes dans le cadre des missions d'intérêt général et d'aide à la contractualisation (MIGAC).
 Il concerne des études médico-économiques multicentriques d'une durée de 2 ans, sur des innovations validées par une étape préalable de recherche clinique (dispositifs médicaux ayant obligatoirement obtenus le Marquage CE), hors médicaments, et présentant un impact potentiel important dans le système de soin hospitalier.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soutien_aux_techniques_innovantes_co%C3%BBteuses</t>
+          <t>Soutien_aux_techniques_innovantes_coûteuses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif du programme est de :
 Mieux répondre aux besoins exprimés par les établissements de santé pour améliorer la prise en charge des patients lorsque le financement d'innovations coûteuses est impliqué;
